--- a/media/predictions/1.xlsx
+++ b/media/predictions/1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Distance №1</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Single</t>
+  </si>
+  <si>
+    <t>43:24:43</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>432</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>

--- a/media/predictions/1.xlsx
+++ b/media/predictions/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>Заплив №1 - Жінки</t>
   </si>
@@ -126,10 +126,25 @@
     <t>Заплив №3 - Чоловіки</t>
   </si>
   <si>
+    <t>Бичков Денис</t>
+  </si>
+  <si>
+    <t>02:50.00</t>
+  </si>
+  <si>
+    <t>Яковенко Максим</t>
+  </si>
+  <si>
+    <t>02:40.00</t>
+  </si>
+  <si>
     <t>Негребецький Ігор</t>
   </si>
   <si>
-    <t>02:50.00</t>
+    <t>Мартієнко  Євген</t>
+  </si>
+  <si>
+    <t>Заплив №4 - Чоловіки</t>
   </si>
   <si>
     <t>Будаевский Павел</t>
@@ -138,21 +153,6 @@
     <t>Team Invictus Ukraine</t>
   </si>
   <si>
-    <t>02:40.00</t>
-  </si>
-  <si>
-    <t>Мартієнко  Євген</t>
-  </si>
-  <si>
-    <t>Бичков Денис</t>
-  </si>
-  <si>
-    <t>Заплив №4 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Яковенко Максим</t>
-  </si>
-  <si>
     <t>Заплив №5 - Жінки</t>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t xml:space="preserve">Кірєєв  Олексій </t>
   </si>
   <si>
-    <t>Скажені Карасі</t>
-  </si>
-  <si>
     <t>00:38.00</t>
   </si>
   <si>
@@ -420,12 +417,12 @@
     <t>00:32.00</t>
   </si>
   <si>
+    <t>Картальов Володимир</t>
+  </si>
+  <si>
     <t>Шкарлет  Олександр</t>
   </si>
   <si>
-    <t>Картальов Володимир</t>
-  </si>
-  <si>
     <t>Заплив №16 - Чоловіки</t>
   </si>
   <si>
@@ -453,12 +450,12 @@
     <t>00:30.50</t>
   </si>
   <si>
+    <t>00:30.00</t>
+  </si>
+  <si>
     <t>Мурашко Валерій</t>
   </si>
   <si>
-    <t>00:30.00</t>
-  </si>
-  <si>
     <t>Дордиенко Сергій</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
     <t>Заплив №20 - Чоловіки</t>
   </si>
   <si>
+    <t>Король Володимир</t>
+  </si>
+  <si>
     <t>00:26.00</t>
   </si>
   <si>
@@ -519,9 +519,6 @@
     <t>00:25.50</t>
   </si>
   <si>
-    <t>Король Володимир</t>
-  </si>
-  <si>
     <t>Соколов Олексій</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>Таган Тетяна</t>
   </si>
   <si>
-    <t>Скаженi карасi</t>
-  </si>
-  <si>
     <t>Заплив №26 - Чоловіки</t>
   </si>
   <si>
@@ -597,9 +591,6 @@
     <t>Власенко Максим</t>
   </si>
   <si>
-    <t>Cкажені карасі</t>
-  </si>
-  <si>
     <t>Заплив №28 - Чоловіки</t>
   </si>
   <si>
@@ -651,15 +642,15 @@
     <t>Заплив №34 - Чоловіки</t>
   </si>
   <si>
+    <t>00:37.50</t>
+  </si>
+  <si>
+    <t>Заплив №35 - Чоловіки</t>
+  </si>
+  <si>
     <t>00:36.00</t>
   </si>
   <si>
-    <t>00:37.50</t>
-  </si>
-  <si>
-    <t>Заплив №35 - Чоловіки</t>
-  </si>
-  <si>
     <t>00:34.50</t>
   </si>
   <si>
@@ -811,6 +802,9 @@
   </si>
   <si>
     <t>Чикаго</t>
+  </si>
+  <si>
+    <t>Ванда Віктор</t>
   </si>
   <si>
     <t>Артеменко  Олексій</t>
@@ -1489,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -1509,16 +1503,16 @@
         <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>2</v>
@@ -1526,16 +1520,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>37</v>
@@ -1546,16 +1540,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>37</v>
@@ -1566,7 +1560,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1599,19 +1593,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
@@ -2157,7 +2151,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>9</v>
@@ -2230,7 +2224,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>29</v>
@@ -2555,13 +2549,13 @@
         <v>20</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F136" s="4" t="n">
         <v>1</v>
@@ -2569,7 +2563,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>20</v>
@@ -2589,7 +2583,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>33</v>
@@ -2609,7 +2603,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>9</v>
@@ -2629,7 +2623,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2674,7 +2668,7 @@
         <v>85</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F146" s="4" t="n">
         <v>1</v>
@@ -2682,7 +2676,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>29</v>
@@ -2694,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F147" s="4" t="n">
         <v>2</v>
@@ -2702,19 +2696,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F148" s="4" t="n">
         <v>3</v>
@@ -2722,19 +2716,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F149" s="4" t="n">
         <v>4</v>
@@ -2742,7 +2736,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2775,7 +2769,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>29</v>
@@ -2787,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F156" s="4" t="n">
         <v>1</v>
@@ -2795,7 +2789,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>90</v>
@@ -2807,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F157" s="4" t="n">
         <v>2</v>
@@ -2815,7 +2809,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>60</v>
@@ -2827,7 +2821,7 @@
         <v>30</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F158" s="4" t="n">
         <v>3</v>
@@ -2847,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F159" s="4" t="n">
         <v>4</v>
@@ -2855,7 +2849,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2888,7 +2882,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>20</v>
@@ -2900,7 +2894,7 @@
         <v>77</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F166" s="4" t="n">
         <v>1</v>
@@ -2908,10 +2902,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>51</v>
@@ -2920,7 +2914,7 @@
         <v>52</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F167" s="4" t="n">
         <v>2</v>
@@ -2928,19 +2922,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F168" s="4" t="n">
         <v>3</v>
@@ -2948,19 +2942,19 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F169" s="4" t="n">
         <v>4</v>
@@ -2968,7 +2962,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3001,7 +2995,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>29</v>
@@ -3013,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F176" s="4" t="n">
         <v>1</v>
@@ -3021,7 +3015,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>25</v>
@@ -3033,7 +3027,7 @@
         <v>30</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F177" s="4" t="n">
         <v>2</v>
@@ -3053,7 +3047,7 @@
         <v>61</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F178" s="4" t="n">
         <v>3</v>
@@ -3061,7 +3055,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>29</v>
@@ -3073,7 +3067,7 @@
         <v>30</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F179" s="4" t="n">
         <v>4</v>
@@ -3081,7 +3075,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3114,7 +3108,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>9</v>
@@ -3126,7 +3120,7 @@
         <v>30</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F186" s="4" t="n">
         <v>1</v>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>14</v>
@@ -3146,7 +3140,7 @@
         <v>30</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F187" s="4" t="n">
         <v>2</v>
@@ -3154,7 +3148,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>14</v>
@@ -3166,7 +3160,7 @@
         <v>30</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F188" s="4" t="n">
         <v>3</v>
@@ -3174,7 +3168,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>60</v>
@@ -3186,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F189" s="4" t="n">
         <v>4</v>
@@ -3194,7 +3188,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3227,16 +3221,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="4" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>164</v>
@@ -3267,16 +3261,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="4" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>164</v>
@@ -3287,7 +3281,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>60</v>
@@ -3307,7 +3301,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3340,7 +3334,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>14</v>
@@ -3352,7 +3346,7 @@
         <v>52</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F206" s="4" t="n">
         <v>1</v>
@@ -3360,12 +3354,12 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3393,7 +3387,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>33</v>
@@ -3405,7 +3399,7 @@
         <v>30</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F216" s="4" t="n">
         <v>1</v>
@@ -3433,12 +3427,12 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -3486,7 +3480,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>33</v>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>33</v>
@@ -3546,12 +3540,12 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3579,7 +3573,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>60</v>
@@ -3591,7 +3585,7 @@
         <v>77</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F236" s="4" t="n">
         <v>1</v>
@@ -3599,7 +3593,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>29</v>
@@ -3611,7 +3605,7 @@
         <v>30</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F237" s="4" t="n">
         <v>2</v>
@@ -3619,12 +3613,12 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -3652,13 +3646,13 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>30</v>
@@ -3684,7 +3678,7 @@
         <v>16</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F247" s="4" t="n">
         <v>2</v>
@@ -3692,12 +3686,12 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -3737,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F256" s="4" t="n">
         <v>1</v>
@@ -3745,7 +3739,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>25</v>
@@ -3757,7 +3751,7 @@
         <v>30</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F257" s="4" t="n">
         <v>2</v>
@@ -3777,7 +3771,7 @@
         <v>77</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F258" s="4" t="n">
         <v>3</v>
@@ -3797,7 +3791,7 @@
         <v>11</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F259" s="4" t="n">
         <v>4</v>
@@ -3805,12 +3799,12 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -3838,7 +3832,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>25</v>
@@ -3850,7 +3844,7 @@
         <v>30</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F266" s="4" t="n">
         <v>1</v>
@@ -3858,19 +3852,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F267" s="4" t="n">
         <v>2</v>
@@ -3878,19 +3872,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F268" s="4" t="n">
         <v>3</v>
@@ -3898,19 +3892,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F269" s="4" t="n">
         <v>4</v>
@@ -3918,12 +3912,12 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -3951,19 +3945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F276" s="4" t="n">
         <v>1</v>
@@ -3983,7 +3977,7 @@
         <v>56</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F277" s="4" t="n">
         <v>2</v>
@@ -3991,7 +3985,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>14</v>
@@ -4003,7 +3997,7 @@
         <v>30</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F278" s="4" t="n">
         <v>3</v>
@@ -4011,7 +4005,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>20</v>
@@ -4023,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F279" s="4" t="n">
         <v>4</v>
@@ -4031,12 +4025,12 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -4064,7 +4058,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>60</v>
@@ -4076,7 +4070,7 @@
         <v>77</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F286" s="4" t="n">
         <v>1</v>
@@ -4096,7 +4090,7 @@
         <v>77</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F287" s="4" t="n">
         <v>2</v>
@@ -4104,7 +4098,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>14</v>
@@ -4116,7 +4110,7 @@
         <v>52</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F288" s="4" t="n">
         <v>3</v>
@@ -4124,12 +4118,12 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4189,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F297" s="4" t="n">
         <v>2</v>
@@ -4209,7 +4203,7 @@
         <v>77</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F298" s="4" t="n">
         <v>3</v>
@@ -4217,12 +4211,12 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4262,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F306" s="4" t="n">
         <v>1</v>
@@ -4270,13 +4264,13 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="4" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>30</v>
@@ -4290,13 +4284,13 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="4" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>30</v>
@@ -4322,7 +4316,7 @@
         <v>16</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F309" s="4" t="n">
         <v>4</v>
@@ -4330,12 +4324,12 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4363,7 +4357,7 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>33</v>
@@ -4375,7 +4369,7 @@
         <v>30</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F316" s="4" t="n">
         <v>1</v>
@@ -4383,16 +4377,16 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="4" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>119</v>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>60</v>
@@ -4415,7 +4409,7 @@
         <v>30</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F318" s="4" t="n">
         <v>3</v>
@@ -4435,7 +4429,7 @@
         <v>85</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F319" s="4" t="n">
         <v>4</v>
@@ -4443,12 +4437,12 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -4476,16 +4470,16 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>119</v>
@@ -4496,19 +4490,19 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F327" s="4" t="n">
         <v>2</v>
@@ -4516,19 +4510,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F328" s="4" t="n">
         <v>3</v>
@@ -4548,7 +4542,7 @@
         <v>77</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F329" s="4" t="n">
         <v>4</v>
@@ -4556,12 +4550,12 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -4589,10 +4583,10 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="4" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>15</v>
@@ -4601,7 +4595,7 @@
         <v>30</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F336" s="4" t="n">
         <v>1</v>
@@ -4609,19 +4603,19 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F337" s="4" t="n">
         <v>2</v>
@@ -4629,19 +4623,19 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="F338" s="4" t="n">
         <v>3</v>
@@ -4649,19 +4643,19 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F339" s="4" t="n">
         <v>4</v>
@@ -4669,12 +4663,12 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -4702,19 +4696,19 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="4" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="F346" s="4" t="n">
         <v>1</v>
@@ -4722,19 +4716,19 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F347" s="4" t="n">
         <v>2</v>
@@ -4742,7 +4736,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>9</v>
@@ -4751,10 +4745,10 @@
         <v>55</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="F348" s="4" t="n">
         <v>3</v>
@@ -4762,19 +4756,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="F349" s="4" t="n">
         <v>4</v>
@@ -4782,12 +4776,12 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -4815,7 +4809,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>29</v>
@@ -4827,7 +4821,7 @@
         <v>30</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F356" s="4" t="n">
         <v>1</v>
@@ -4835,19 +4829,19 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="4" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="F357" s="4" t="n">
         <v>2</v>
@@ -4855,32 +4849,52 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="4" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="F358" s="4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F359" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -4940,7 +4954,7 @@
         <v>30</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F367" s="4" t="n">
         <v>2</v>
@@ -4960,7 +4974,7 @@
         <v>11</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F368" s="4" t="n">
         <v>3</v>
@@ -4988,12 +5002,12 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -5033,7 +5047,7 @@
         <v>16</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F376" s="4" t="n">
         <v>1</v>
@@ -5041,7 +5055,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>9</v>
@@ -5061,7 +5075,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>20</v>
@@ -5101,12 +5115,12 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -5134,13 +5148,13 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>52</v>
@@ -5166,7 +5180,7 @@
         <v>61</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F387" s="4" t="n">
         <v>2</v>
@@ -5194,13 +5208,13 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>52</v>
@@ -5214,12 +5228,12 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -5247,19 +5261,19 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F396" s="4" t="n">
         <v>1</v>
@@ -5267,19 +5281,19 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F397" s="4" t="n">
         <v>2</v>
@@ -5299,7 +5313,7 @@
         <v>52</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F398" s="4" t="n">
         <v>3</v>
@@ -5307,12 +5321,12 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -5340,7 +5354,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>33</v>
@@ -5352,7 +5366,7 @@
         <v>30</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F406" s="4" t="n">
         <v>1</v>
@@ -5360,19 +5374,19 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F407" s="4" t="n">
         <v>2</v>
@@ -5380,12 +5394,12 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -5425,7 +5439,7 @@
         <v>77</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F416" s="4" t="n">
         <v>1</v>
@@ -5445,7 +5459,7 @@
         <v>85</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F417" s="4" t="n">
         <v>2</v>
@@ -5453,7 +5467,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>33</v>
@@ -5465,7 +5479,7 @@
         <v>30</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F418" s="4" t="n">
         <v>3</v>
@@ -5493,12 +5507,12 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -5526,7 +5540,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>33</v>
@@ -5538,7 +5552,7 @@
         <v>30</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F426" s="4" t="n">
         <v>1</v>
@@ -5546,7 +5560,7 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>29</v>
@@ -5566,7 +5580,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>60</v>
@@ -5578,7 +5592,7 @@
         <v>77</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F428" s="4" t="n">
         <v>3</v>
@@ -5586,7 +5600,7 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>29</v>
@@ -5598,7 +5612,7 @@
         <v>30</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F429" s="4" t="n">
         <v>4</v>
@@ -5606,12 +5620,12 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -5639,19 +5653,19 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F436" s="4" t="n">
         <v>1</v>
@@ -5665,13 +5679,13 @@
         <v>20</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F437" s="4" t="n">
         <v>2</v>
@@ -5679,7 +5693,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>9</v>
@@ -5691,7 +5705,7 @@
         <v>30</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F438" s="4" t="n">
         <v>3</v>
@@ -5699,7 +5713,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>29</v>
@@ -5711,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F439" s="4" t="n">
         <v>4</v>
@@ -5719,12 +5733,12 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -5752,7 +5766,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>14</v>
@@ -5764,7 +5778,7 @@
         <v>30</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F446" s="4" t="n">
         <v>1</v>
@@ -5939,7 +5953,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5967,7 +5981,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
@@ -5979,7 +5993,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
@@ -6039,7 +6053,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>4</v>
@@ -6047,12 +6061,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6080,7 +6094,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -6100,13 +6114,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
@@ -6165,7 +6179,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6193,7 +6207,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -6245,7 +6259,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>3</v>
@@ -6253,7 +6267,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -6273,12 +6287,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6306,7 +6320,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>29</v>
@@ -6338,7 +6352,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>2</v>
@@ -6358,7 +6372,7 @@
         <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>3</v>
@@ -6386,12 +6400,12 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6419,16 +6433,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>95</v>
@@ -6439,19 +6453,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>2</v>
@@ -6459,19 +6473,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>3</v>
@@ -6479,16 +6493,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>95</v>
@@ -6504,7 +6518,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6532,7 +6546,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
@@ -6544,7 +6558,7 @@
         <v>30</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6552,7 +6566,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>29</v>
@@ -6564,7 +6578,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>2</v>
@@ -6572,7 +6586,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
@@ -6604,7 +6618,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>4</v>
@@ -6617,7 +6631,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6657,7 +6671,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>1</v>
@@ -6665,16 +6679,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>67</v>
@@ -6697,7 +6711,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F68" s="4" t="n">
         <v>3</v>
@@ -6705,19 +6719,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>4</v>
@@ -6725,12 +6739,12 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6758,16 +6772,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>67</v>
@@ -6778,7 +6792,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>29</v>
@@ -6790,7 +6804,7 @@
         <v>30</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F77" s="4" t="n">
         <v>2</v>
@@ -6851,7 +6865,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>20</v>
@@ -6863,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F87" s="4" t="n">
         <v>2</v>
@@ -6891,7 +6905,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>60</v>
@@ -6956,7 +6970,7 @@
         <v>52</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F96" s="4" t="n">
         <v>1</v>
@@ -6964,7 +6978,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6997,19 +7011,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F106" s="4" t="n">
         <v>1</v>
@@ -7017,7 +7031,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>14</v>
@@ -7049,7 +7063,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>3</v>
@@ -7077,7 +7091,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7150,7 +7164,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>14</v>
@@ -7243,7 +7257,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>29</v>
@@ -7255,7 +7269,7 @@
         <v>30</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" s="4" t="n">
         <v>2</v>
@@ -7263,7 +7277,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>9</v>
@@ -7295,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F129" s="4" t="n">
         <v>4</v>
@@ -7336,19 +7350,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="4" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F136" s="4" t="n">
         <v>1</v>
@@ -7356,16 +7370,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>103</v>
@@ -7376,19 +7390,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F138" s="4" t="n">
         <v>3</v>
@@ -7396,7 +7410,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>25</v>
@@ -7416,7 +7430,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7449,16 +7463,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>103</v>
@@ -7469,19 +7483,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F147" s="4" t="n">
         <v>2</v>
@@ -7509,7 +7523,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7542,19 +7556,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F156" s="4" t="n">
         <v>1</v>
@@ -7594,7 +7608,7 @@
         <v>30</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F158" s="4" t="n">
         <v>3</v>
@@ -7622,7 +7636,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7655,7 +7669,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>14</v>
@@ -7667,7 +7681,7 @@
         <v>30</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F166" s="4" t="n">
         <v>1</v>
@@ -7695,7 +7709,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7768,7 +7782,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>81</v>
@@ -7777,7 +7791,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>122</v>
@@ -7808,7 +7822,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7841,16 +7855,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>119</v>
@@ -7861,19 +7875,19 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F187" s="4" t="n">
         <v>2</v>
@@ -7881,16 +7895,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>113</v>
@@ -7901,16 +7915,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>113</v>
@@ -7921,7 +7935,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7954,19 +7968,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="4" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F196" s="4" t="n">
         <v>1</v>
@@ -7974,19 +7988,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="4" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F197" s="4" t="n">
         <v>2</v>
@@ -7994,7 +8008,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="4" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>29</v>
@@ -8006,7 +8020,7 @@
         <v>30</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F198" s="4" t="n">
         <v>3</v>
@@ -8014,19 +8028,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F199" s="4" t="n">
         <v>4</v>
@@ -8034,7 +8048,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8067,19 +8081,19 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="F206" s="4" t="n">
         <v>1</v>
@@ -8087,19 +8101,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="4" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F207" s="4" t="n">
         <v>2</v>
@@ -8107,19 +8121,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="4" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F208" s="4" t="n">
         <v>3</v>
@@ -8127,19 +8141,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="F209" s="4" t="n">
         <v>4</v>
@@ -8147,7 +8161,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8180,19 +8194,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F216" s="4" t="n">
         <v>1</v>
@@ -8200,16 +8214,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>164</v>
@@ -8220,7 +8234,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>14</v>
@@ -8232,7 +8246,7 @@
         <v>30</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F218" s="4" t="n">
         <v>3</v>
@@ -8240,10 +8254,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>15</v>
@@ -8252,7 +8266,7 @@
         <v>30</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F219" s="4" t="n">
         <v>4</v>
@@ -8260,7 +8274,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8293,19 +8307,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="4" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F226" s="4" t="n">
         <v>1</v>
@@ -8313,32 +8327,52 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="4" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F227" s="4" t="n">
-        <v>2</v>
+      <c r="C228" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F228" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8366,7 +8400,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>14</v>
@@ -8386,12 +8420,12 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8431,7 +8465,7 @@
         <v>22</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F246" s="4" t="n">
         <v>1</v>
@@ -8459,7 +8493,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>9</v>
@@ -8499,12 +8533,12 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -8532,7 +8566,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>33</v>
@@ -8552,7 +8586,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>60</v>
@@ -8564,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F257" s="4" t="n">
         <v>2</v>
@@ -8572,7 +8606,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>29</v>
@@ -8584,7 +8618,7 @@
         <v>30</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F258" s="4" t="n">
         <v>3</v>
@@ -8592,12 +8626,12 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -8637,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F266" s="4" t="n">
         <v>1</v>
@@ -8645,19 +8679,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F267" s="4" t="n">
         <v>2</v>
@@ -8665,12 +8699,12 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8710,7 +8744,7 @@
         <v>16</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F276" s="4" t="n">
         <v>1</v>
@@ -8730,7 +8764,7 @@
         <v>77</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F277" s="4" t="n">
         <v>2</v>
@@ -8738,7 +8772,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>60</v>
@@ -8764,7 +8798,7 @@
         <v>20</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>30</v>
@@ -8778,12 +8812,12 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8811,7 +8845,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>33</v>
@@ -8831,7 +8865,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>25</v>
@@ -8843,7 +8877,7 @@
         <v>30</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F287" s="4" t="n">
         <v>2</v>
@@ -8863,7 +8897,7 @@
         <v>77</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F288" s="4" t="n">
         <v>3</v>
@@ -8883,7 +8917,7 @@
         <v>11</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F289" s="4" t="n">
         <v>4</v>
@@ -8891,12 +8925,12 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8924,7 +8958,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>25</v>
@@ -8936,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F296" s="4" t="n">
         <v>1</v>
@@ -8956,7 +8990,7 @@
         <v>30</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F297" s="4" t="n">
         <v>2</v>
@@ -8976,7 +9010,7 @@
         <v>61</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F298" s="4" t="n">
         <v>3</v>
@@ -8984,19 +9018,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F299" s="4" t="n">
         <v>4</v>
@@ -9004,12 +9038,12 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -9049,7 +9083,7 @@
         <v>56</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F306" s="4" t="n">
         <v>1</v>
@@ -9069,7 +9103,7 @@
         <v>56</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F307" s="4" t="n">
         <v>2</v>
@@ -9077,19 +9111,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F308" s="4" t="n">
         <v>3</v>
@@ -9097,12 +9131,12 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -9142,7 +9176,7 @@
         <v>30</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F316" s="4" t="n">
         <v>1</v>
@@ -9182,7 +9216,7 @@
         <v>77</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F318" s="4" t="n">
         <v>3</v>
@@ -9190,7 +9224,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>14</v>
@@ -9202,7 +9236,7 @@
         <v>30</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F319" s="4" t="n">
         <v>4</v>
@@ -9210,12 +9244,12 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -9255,7 +9289,7 @@
         <v>77</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F326" s="4" t="n">
         <v>1</v>
@@ -9263,7 +9297,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>33</v>
@@ -9289,7 +9323,7 @@
         <v>20</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>30</v>
@@ -9323,12 +9357,12 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -9368,7 +9402,7 @@
         <v>85</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F336" s="4" t="n">
         <v>1</v>
@@ -9376,19 +9410,19 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="4" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F337" s="4" t="n">
         <v>2</v>
@@ -9396,19 +9430,19 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="4" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F338" s="4" t="n">
         <v>3</v>
@@ -9428,7 +9462,7 @@
         <v>77</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F339" s="4" t="n">
         <v>4</v>
@@ -9436,12 +9470,12 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -9469,7 +9503,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>20</v>
@@ -9481,7 +9515,7 @@
         <v>77</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F346" s="4" t="n">
         <v>1</v>
@@ -9489,7 +9523,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>29</v>
@@ -9501,7 +9535,7 @@
         <v>30</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F347" s="4" t="n">
         <v>2</v>
@@ -9521,7 +9555,7 @@
         <v>77</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F348" s="4" t="n">
         <v>3</v>
@@ -9529,7 +9563,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>25</v>
@@ -9541,7 +9575,7 @@
         <v>52</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F349" s="4" t="n">
         <v>4</v>
@@ -9549,12 +9583,12 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9614,7 +9648,7 @@
         <v>30</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F357" s="4" t="n">
         <v>2</v>
@@ -9654,7 +9688,7 @@
         <v>11</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F359" s="4" t="n">
         <v>4</v>
@@ -9662,12 +9696,12 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9707,7 +9741,7 @@
         <v>16</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F366" s="4" t="n">
         <v>1</v>
@@ -9715,7 +9749,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>14</v>
@@ -9735,16 +9769,16 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E368" s="4" t="s">
         <v>48</v>
@@ -9775,12 +9809,12 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9828,7 +9862,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>60</v>
@@ -9840,7 +9874,7 @@
         <v>77</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F377" s="4" t="n">
         <v>2</v>
@@ -9860,7 +9894,7 @@
         <v>61</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F378" s="4" t="n">
         <v>3</v>
@@ -9888,12 +9922,12 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -9933,7 +9967,7 @@
         <v>11</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F386" s="4" t="n">
         <v>1</v>
@@ -9941,19 +9975,19 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F387" s="4" t="n">
         <v>2</v>
@@ -9973,7 +10007,7 @@
         <v>52</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F388" s="4" t="n">
         <v>3</v>
@@ -9993,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F389" s="4" t="n">
         <v>4</v>
@@ -10001,12 +10035,12 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -10034,19 +10068,19 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F396" s="4" t="n">
         <v>1</v>
@@ -10066,7 +10100,7 @@
         <v>77</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F397" s="4" t="n">
         <v>2</v>
@@ -10074,7 +10108,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>14</v>
@@ -10086,7 +10120,7 @@
         <v>52</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F398" s="4" t="n">
         <v>3</v>
@@ -10094,12 +10128,12 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -10127,7 +10161,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>33</v>
@@ -10139,7 +10173,7 @@
         <v>30</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F406" s="4" t="n">
         <v>1</v>
@@ -10147,12 +10181,12 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -10180,16 +10214,16 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="4" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E416" s="4" t="s">
         <v>122</v>
@@ -10200,7 +10234,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>33</v>
@@ -10220,7 +10254,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>29</v>
@@ -10232,7 +10266,7 @@
         <v>30</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F418" s="4" t="n">
         <v>3</v>
@@ -10240,16 +10274,16 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>122</v>
@@ -10260,12 +10294,12 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -10293,7 +10327,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>33</v>
@@ -10313,16 +10347,16 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="4" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>112</v>
@@ -10333,7 +10367,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>33</v>
@@ -10365,7 +10399,7 @@
         <v>85</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F429" s="4" t="n">
         <v>4</v>
@@ -10373,12 +10407,12 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -10406,16 +10440,16 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="4" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>112</v>
@@ -10438,7 +10472,7 @@
         <v>56</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F437" s="4" t="n">
         <v>2</v>
@@ -10446,7 +10480,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>29</v>
@@ -10458,7 +10492,7 @@
         <v>30</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F438" s="4" t="n">
         <v>3</v>
@@ -10466,7 +10500,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>20</v>
@@ -10478,7 +10512,7 @@
         <v>11</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F439" s="4" t="n">
         <v>4</v>
@@ -10486,12 +10520,12 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10519,7 +10553,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>14</v>
@@ -10531,7 +10565,7 @@
         <v>30</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F446" s="4" t="n">
         <v>1</v>

--- a/media/predictions/1.xlsx
+++ b/media/predictions/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>Заплив №1 - Жінки</t>
   </si>
@@ -132,27 +132,27 @@
     <t>02:50.00</t>
   </si>
   <si>
+    <t>Будаевский Павел</t>
+  </si>
+  <si>
+    <t>Team Invictus Ukraine</t>
+  </si>
+  <si>
+    <t>02:40.00</t>
+  </si>
+  <si>
+    <t>Негребецький Ігор</t>
+  </si>
+  <si>
+    <t>Мартієнко  Євген</t>
+  </si>
+  <si>
+    <t>Заплив №4 - Чоловіки</t>
+  </si>
+  <si>
     <t>Яковенко Максим</t>
   </si>
   <si>
-    <t>02:40.00</t>
-  </si>
-  <si>
-    <t>Негребецький Ігор</t>
-  </si>
-  <si>
-    <t>Мартієнко  Євген</t>
-  </si>
-  <si>
-    <t>Заплив №4 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Будаевский Павел</t>
-  </si>
-  <si>
-    <t>Team Invictus Ukraine</t>
-  </si>
-  <si>
     <t>Заплив №5 - Жінки</t>
   </si>
   <si>
@@ -192,30 +192,30 @@
     <t>01:10.00</t>
   </si>
   <si>
+    <t>Крот Станіслав</t>
+  </si>
+  <si>
+    <t>NoStars</t>
+  </si>
+  <si>
+    <t>Чалов  Андрій</t>
+  </si>
+  <si>
+    <t>D(40-44)</t>
+  </si>
+  <si>
+    <t>Черкаси</t>
+  </si>
+  <si>
+    <t>01:14.00</t>
+  </si>
+  <si>
+    <t>Заплив №7 - Чоловіки</t>
+  </si>
+  <si>
     <t>Савченко Ігор</t>
   </si>
   <si>
-    <t>Чалов  Андрій</t>
-  </si>
-  <si>
-    <t>D(40-44)</t>
-  </si>
-  <si>
-    <t>Черкаси</t>
-  </si>
-  <si>
-    <t>01:14.00</t>
-  </si>
-  <si>
-    <t>Заплив №7 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Крот Станіслав</t>
-  </si>
-  <si>
-    <t>NoStars</t>
-  </si>
-  <si>
     <t>Печенюк  Володимир</t>
   </si>
   <si>
@@ -324,18 +324,18 @@
     <t>01:18.00</t>
   </si>
   <si>
+    <t>Буханцов Олексій</t>
+  </si>
+  <si>
+    <t>Гаврилыч</t>
+  </si>
+  <si>
+    <t>01:17.00</t>
+  </si>
+  <si>
     <t>Садовський  Вадим</t>
   </si>
   <si>
-    <t>01:17.00</t>
-  </si>
-  <si>
-    <t>Буханцов Олексій</t>
-  </si>
-  <si>
-    <t>Гаврилыч</t>
-  </si>
-  <si>
     <t>Заплив №12 - Жінки</t>
   </si>
   <si>
@@ -396,12 +396,12 @@
     <t>00:38.00</t>
   </si>
   <si>
+    <t xml:space="preserve">Перцюх  Олександр </t>
+  </si>
+  <si>
     <t>Паргамонов Сергій</t>
   </si>
   <si>
-    <t xml:space="preserve">Перцюх  Олександр </t>
-  </si>
-  <si>
     <t>Дригола Геннадій</t>
   </si>
   <si>
@@ -411,19 +411,28 @@
     <t>00:33.00</t>
   </si>
   <si>
+    <t>Картальов Володимир</t>
+  </si>
+  <si>
+    <t>00:32.00</t>
+  </si>
+  <si>
     <t>Ващeнко Дмитро</t>
   </si>
   <si>
-    <t>00:32.00</t>
-  </si>
-  <si>
-    <t>Картальов Володимир</t>
+    <t>Артеменко Роман</t>
+  </si>
+  <si>
+    <t>Заплив №16 - Чоловіки</t>
   </si>
   <si>
     <t>Шкарлет  Олександр</t>
   </si>
   <si>
-    <t>Заплив №16 - Чоловіки</t>
+    <t>Драпкин Сергій</t>
+  </si>
+  <si>
+    <t>00:30.50</t>
   </si>
   <si>
     <t>Коршиков Андрій</t>
@@ -432,27 +441,21 @@
     <t>00:31.00</t>
   </si>
   <si>
-    <t>Артеменко Роман</t>
-  </si>
-  <si>
-    <t>00:31.09</t>
-  </si>
-  <si>
     <t>00:31.50</t>
   </si>
   <si>
     <t>Заплив №17 - Чоловіки</t>
   </si>
   <si>
-    <t>Драпкин Сергій</t>
-  </si>
-  <si>
-    <t>00:30.50</t>
-  </si>
-  <si>
     <t>00:30.00</t>
   </si>
   <si>
+    <t>Яременко Сергій</t>
+  </si>
+  <si>
+    <t>00:29.50</t>
+  </si>
+  <si>
     <t>Мурашко Валерій</t>
   </si>
   <si>
@@ -462,10 +465,16 @@
     <t>Заплив №18 - Чоловіки</t>
   </si>
   <si>
-    <t>Яременко Сергій</t>
-  </si>
-  <si>
-    <t>00:29.50</t>
+    <t>Бондаренко Руслан</t>
+  </si>
+  <si>
+    <t>00:29.00</t>
+  </si>
+  <si>
+    <t>Поровай Дмитро</t>
+  </si>
+  <si>
+    <t>00:28.00</t>
   </si>
   <si>
     <t>Вербицький Віталій</t>
@@ -474,19 +483,16 @@
     <t>00:28.34</t>
   </si>
   <si>
-    <t>00:29.00</t>
-  </si>
-  <si>
-    <t>Бондаренко Руслан</t>
-  </si>
-  <si>
     <t>Заплив №19 - Чоловіки</t>
   </si>
   <si>
-    <t>Поровай Дмитро</t>
-  </si>
-  <si>
-    <t>00:28.00</t>
+    <t>Бутович Артем</t>
+  </si>
+  <si>
+    <t>00:27.50</t>
+  </si>
+  <si>
+    <t>00:26.00</t>
   </si>
   <si>
     <t>Корниевич Артур</t>
@@ -495,12 +501,6 @@
     <t>00:26.50</t>
   </si>
   <si>
-    <t>Бутович Артем</t>
-  </si>
-  <si>
-    <t>00:27.50</t>
-  </si>
-  <si>
     <t>Яхно Анатолий</t>
   </si>
   <si>
@@ -510,7 +510,10 @@
     <t>Король Володимир</t>
   </si>
   <si>
-    <t>00:26.00</t>
+    <t>Ведерников  Владислав</t>
+  </si>
+  <si>
+    <t>00:24.50</t>
   </si>
   <si>
     <t>Самойленко  Євген</t>
@@ -522,361 +525,349 @@
     <t>Соколов Олексій</t>
   </si>
   <si>
+    <t>Заплив №21 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №5 - 100 На спині</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брилякова  Світлана </t>
+  </si>
+  <si>
+    <t>01:56.00</t>
+  </si>
+  <si>
+    <t>Заплив №22 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Климко  Микола</t>
+  </si>
+  <si>
+    <t>Ковальчук  Сергій</t>
+  </si>
+  <si>
+    <t>Заплив №23 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Мельник Вадим</t>
+  </si>
+  <si>
+    <t>01:16.50</t>
+  </si>
+  <si>
+    <t>01:15.00</t>
+  </si>
+  <si>
+    <t>Заплив №24 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №6 - 50 Баттерфлай</t>
+  </si>
+  <si>
+    <t>Таган Тетяна</t>
+  </si>
+  <si>
+    <t>Заплив №25 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:44.00</t>
+  </si>
+  <si>
+    <t>00:34.00</t>
+  </si>
+  <si>
+    <t>Заплив №26 - Чоловіки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Іванов  Віктор </t>
+  </si>
+  <si>
+    <t>Власенко Максим</t>
+  </si>
+  <si>
+    <t>Заплив №27 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Дмітров  Сергій</t>
+  </si>
+  <si>
+    <t>Заплив №28 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:25.00</t>
+  </si>
+  <si>
+    <t>Заплив №29 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №7 - 50 Брас</t>
+  </si>
+  <si>
+    <t>00:42.00</t>
+  </si>
+  <si>
+    <t>Заплив №30 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:00.00</t>
+  </si>
+  <si>
+    <t>00:58.00</t>
+  </si>
+  <si>
+    <t>Заплив №31 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:49.00</t>
+  </si>
+  <si>
+    <t>00:41.00</t>
+  </si>
+  <si>
+    <t>Заплив №32 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:38.50</t>
+  </si>
+  <si>
+    <t>00:39.00</t>
+  </si>
+  <si>
+    <t>Заплив №33 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:37.50</t>
+  </si>
+  <si>
+    <t>Заплив №34 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:36.00</t>
+  </si>
+  <si>
+    <t>00:34.50</t>
+  </si>
+  <si>
+    <t>Заплив №35 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Мащенко Олександр</t>
+  </si>
+  <si>
+    <t>Мандрика Михайло</t>
+  </si>
+  <si>
+    <t>00:32.50</t>
+  </si>
+  <si>
+    <t>Заплив №36 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №8 - 100 Вільний стиль</t>
+  </si>
+  <si>
+    <t>01:12.00</t>
+  </si>
+  <si>
+    <t>Заплив №37 - Чоловіки</t>
+  </si>
+  <si>
+    <t>02:00.00</t>
+  </si>
+  <si>
+    <t>Заплив №38 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:04.00</t>
+  </si>
+  <si>
+    <t>Заплив №39 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:03.00</t>
+  </si>
+  <si>
+    <t>Заплив №40 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №9 - 50 На спині</t>
+  </si>
+  <si>
+    <t>00:50.13</t>
+  </si>
+  <si>
+    <t>00:37.00</t>
+  </si>
+  <si>
+    <t>Заплив №41 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:47.00</t>
+  </si>
+  <si>
+    <t>Заплив №42 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №43 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №44 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Дистанція №1 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>01:52.00</t>
+  </si>
+  <si>
+    <t>01:50.00</t>
+  </si>
+  <si>
+    <t>Заплив №2 - Жінки</t>
+  </si>
+  <si>
+    <t>Яремчук  Марія</t>
+  </si>
+  <si>
+    <t>01:38.00</t>
+  </si>
+  <si>
+    <t>Лінивий Олександр</t>
+  </si>
+  <si>
+    <t>01:21.00</t>
+  </si>
+  <si>
+    <t>01:22.00</t>
+  </si>
+  <si>
+    <t>Заплив №5 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:08.00</t>
+  </si>
+  <si>
+    <t>01:11.00</t>
+  </si>
+  <si>
+    <t>01:05.50</t>
+  </si>
+  <si>
+    <t>01:07.00</t>
+  </si>
+  <si>
+    <t>Заплив №8 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:06.50</t>
+  </si>
+  <si>
+    <t>Заплив №11 - Жінки</t>
+  </si>
+  <si>
+    <t>Рассказова Ольга</t>
+  </si>
+  <si>
+    <t>Team2swim</t>
+  </si>
+  <si>
+    <t>Запоріжжя</t>
+  </si>
+  <si>
+    <t>01:59.00</t>
+  </si>
+  <si>
+    <t>Заплив №12 - Чоловіки</t>
+  </si>
+  <si>
+    <t>01:24.00</t>
+  </si>
+  <si>
+    <t>Боровиков Сергей</t>
+  </si>
+  <si>
+    <t>Заплив №16 - Жінки</t>
+  </si>
+  <si>
+    <t>Заплив №17 - Жінки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МакКрекен Терренс </t>
+  </si>
+  <si>
+    <t>Чикаго</t>
+  </si>
+  <si>
+    <t>Ванда Віктор</t>
+  </si>
+  <si>
+    <t>Артеменко  Олексій</t>
+  </si>
+  <si>
     <t>Заплив №21 - Чоловіки</t>
   </si>
   <si>
-    <t>Ведерников  Владислав</t>
-  </si>
-  <si>
-    <t>00:24.50</t>
-  </si>
-  <si>
-    <t>Заплив №22 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №5 - 100 На спині</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брилякова  Світлана </t>
-  </si>
-  <si>
-    <t>01:56.00</t>
-  </si>
-  <si>
-    <t>Заплив №23 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Климко  Микола</t>
-  </si>
-  <si>
-    <t>Ковальчук  Сергій</t>
-  </si>
-  <si>
-    <t>Заплив №24 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Мельник Вадим</t>
-  </si>
-  <si>
-    <t>01:16.50</t>
-  </si>
-  <si>
-    <t>01:15.00</t>
-  </si>
-  <si>
-    <t>Заплив №25 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №6 - 50 Баттерфлай</t>
-  </si>
-  <si>
-    <t>Таган Тетяна</t>
-  </si>
-  <si>
-    <t>Заплив №26 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:44.00</t>
-  </si>
-  <si>
-    <t>00:34.00</t>
-  </si>
-  <si>
-    <t>Заплив №27 - Чоловіки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Іванов  Віктор </t>
-  </si>
-  <si>
-    <t>Власенко Максим</t>
-  </si>
-  <si>
-    <t>Заплив №28 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дмітров  Сергій</t>
+    <t>00:29.80</t>
+  </si>
+  <si>
+    <t>Іванов Юрій</t>
+  </si>
+  <si>
+    <t>Катран</t>
+  </si>
+  <si>
+    <t>Трофимец  Дмитро</t>
+  </si>
+  <si>
+    <t>00:24.00</t>
+  </si>
+  <si>
+    <t>01:13.50</t>
+  </si>
+  <si>
+    <t>01:13.00</t>
+  </si>
+  <si>
+    <t>Заплив №27 - Жінки</t>
   </si>
   <si>
     <t>Заплив №29 - Чоловіки</t>
   </si>
   <si>
-    <t>00:25.00</t>
-  </si>
-  <si>
-    <t>Заплив №30 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №7 - 50 Брас</t>
-  </si>
-  <si>
-    <t>00:42.00</t>
-  </si>
-  <si>
-    <t>Заплив №31 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:00.00</t>
-  </si>
-  <si>
-    <t>00:58.00</t>
-  </si>
-  <si>
-    <t>Заплив №32 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:49.00</t>
-  </si>
-  <si>
-    <t>00:41.00</t>
-  </si>
-  <si>
-    <t>Заплив №33 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:38.50</t>
-  </si>
-  <si>
-    <t>00:39.00</t>
-  </si>
-  <si>
-    <t>Заплив №34 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:37.50</t>
-  </si>
-  <si>
-    <t>Заплив №35 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:36.00</t>
-  </si>
-  <si>
-    <t>00:34.50</t>
-  </si>
-  <si>
-    <t>Заплив №36 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Мащенко Олександр</t>
-  </si>
-  <si>
-    <t>Мандрика Михайло</t>
-  </si>
-  <si>
-    <t>00:32.50</t>
-  </si>
-  <si>
-    <t>Заплив №37 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №8 - 100 Вільний стиль</t>
-  </si>
-  <si>
-    <t>01:12.00</t>
-  </si>
-  <si>
-    <t>Заплив №38 - Чоловіки</t>
-  </si>
-  <si>
-    <t>02:00.00</t>
-  </si>
-  <si>
-    <t>Заплив №39 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:04.00</t>
+    <t>Заплив №32 - Жінки</t>
+  </si>
+  <si>
+    <t>00:32.90</t>
+  </si>
+  <si>
+    <t>01:02.00</t>
+  </si>
+  <si>
+    <t>00:59.00</t>
+  </si>
+  <si>
+    <t>01:01.00</t>
   </si>
   <si>
     <t>Заплив №40 - Чоловіки</t>
   </si>
   <si>
-    <t>01:03.00</t>
+    <t>00:57.00</t>
+  </si>
+  <si>
+    <t>00:56.50</t>
+  </si>
+  <si>
+    <t>00:54.50</t>
   </si>
   <si>
     <t>Заплив №41 - Жінки</t>
   </si>
   <si>
-    <t>Дистанція №9 - 50 На спині</t>
-  </si>
-  <si>
-    <t>00:50.13</t>
-  </si>
-  <si>
-    <t>00:37.00</t>
-  </si>
-  <si>
-    <t>Заплив №42 - Чоловіки</t>
-  </si>
-  <si>
-    <t>00:47.00</t>
-  </si>
-  <si>
-    <t>Заплив №43 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №44 - Чоловіки</t>
+    <t>Гула Роман</t>
   </si>
   <si>
     <t>Заплив №45 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №1 - 100 Комплексне плавання</t>
-  </si>
-  <si>
-    <t>01:52.00</t>
-  </si>
-  <si>
-    <t>01:50.00</t>
-  </si>
-  <si>
-    <t>Заплив №2 - Жінки</t>
-  </si>
-  <si>
-    <t>Яремчук  Марія</t>
-  </si>
-  <si>
-    <t>01:38.00</t>
-  </si>
-  <si>
-    <t>Лінивий Олександр</t>
-  </si>
-  <si>
-    <t>01:21.00</t>
-  </si>
-  <si>
-    <t>01:22.00</t>
-  </si>
-  <si>
-    <t>Заплив №5 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:08.00</t>
-  </si>
-  <si>
-    <t>01:11.00</t>
-  </si>
-  <si>
-    <t>01:05.50</t>
-  </si>
-  <si>
-    <t>01:07.00</t>
-  </si>
-  <si>
-    <t>Заплив №8 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:06.50</t>
-  </si>
-  <si>
-    <t>Заплив №11 - Жінки</t>
-  </si>
-  <si>
-    <t>Рассказова Ольга</t>
-  </si>
-  <si>
-    <t>Team2swim</t>
-  </si>
-  <si>
-    <t>Запоріжжя</t>
-  </si>
-  <si>
-    <t>01:59.00</t>
-  </si>
-  <si>
-    <t>Заплив №12 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:24.00</t>
-  </si>
-  <si>
-    <t>Боровиков Сергей</t>
-  </si>
-  <si>
-    <t>Заплив №16 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №17 - Жінки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МакКрекен Терренс </t>
-  </si>
-  <si>
-    <t>Чикаго</t>
-  </si>
-  <si>
-    <t>Ванда Віктор</t>
-  </si>
-  <si>
-    <t>Артеменко  Олексій</t>
-  </si>
-  <si>
-    <t>00:29.80</t>
-  </si>
-  <si>
-    <t>Заплив №22 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Іванов Юрій</t>
-  </si>
-  <si>
-    <t>Катран</t>
-  </si>
-  <si>
-    <t>Трофимец  Дмитро</t>
-  </si>
-  <si>
-    <t>00:24.00</t>
-  </si>
-  <si>
-    <t>Заплив №24 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №25 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:13.50</t>
-  </si>
-  <si>
-    <t>01:13.00</t>
-  </si>
-  <si>
-    <t>Заплив №27 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №30 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №32 - Жінки</t>
-  </si>
-  <si>
-    <t>00:32.90</t>
-  </si>
-  <si>
-    <t>Заплив №36 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №37 - Чоловіки</t>
-  </si>
-  <si>
-    <t>01:02.00</t>
-  </si>
-  <si>
-    <t>00:59.00</t>
-  </si>
-  <si>
-    <t>01:01.00</t>
-  </si>
-  <si>
-    <t>00:57.00</t>
-  </si>
-  <si>
-    <t>00:56.50</t>
-  </si>
-  <si>
-    <t>00:54.50</t>
-  </si>
-  <si>
-    <t>Гула Роман</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,16 +1494,16 @@
         <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>2</v>
@@ -1520,7 +1511,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -1540,7 +1531,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -1560,7 +1551,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1593,19 +1584,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
@@ -1742,13 +1733,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>57</v>
@@ -1759,19 +1750,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>4</v>
@@ -1779,7 +1770,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1812,16 +1803,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>57</v>
@@ -2151,7 +2142,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>9</v>
@@ -2174,7 +2165,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>98</v>
@@ -2224,7 +2215,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>29</v>
@@ -2247,16 +2238,16 @@
         <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F107" s="4" t="n">
         <v>2</v>
@@ -2264,19 +2255,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>3</v>
@@ -2566,13 +2557,13 @@
         <v>126</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>113</v>
@@ -2586,13 +2577,13 @@
         <v>127</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>113</v>
@@ -2719,13 +2710,13 @@
         <v>134</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>132</v>
@@ -2769,16 +2760,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>132</v>
@@ -2789,19 +2780,19 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F157" s="4" t="n">
         <v>2</v>
@@ -2809,10 +2800,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>15</v>
@@ -2821,7 +2812,7 @@
         <v>30</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F158" s="4" t="n">
         <v>3</v>
@@ -2841,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F159" s="4" t="n">
         <v>4</v>
@@ -2849,7 +2840,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2882,16 +2873,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>143</v>
@@ -2902,19 +2893,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F167" s="4" t="n">
         <v>2</v>
@@ -2922,7 +2913,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>90</v>
@@ -2934,7 +2925,7 @@
         <v>52</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F168" s="4" t="n">
         <v>3</v>
@@ -2942,10 +2933,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>26</v>
@@ -2954,7 +2945,7 @@
         <v>52</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F169" s="4" t="n">
         <v>4</v>
@@ -2962,7 +2953,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -2995,19 +2986,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F176" s="4" t="n">
         <v>1</v>
@@ -3015,19 +3006,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F177" s="4" t="n">
         <v>2</v>
@@ -3035,19 +3026,19 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F178" s="4" t="n">
         <v>3</v>
@@ -3055,19 +3046,19 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F179" s="4" t="n">
         <v>4</v>
@@ -3075,7 +3066,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3108,19 +3099,19 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F186" s="4" t="n">
         <v>1</v>
@@ -3128,13 +3119,13 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>30</v>
@@ -3171,7 +3162,7 @@
         <v>161</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>98</v>
@@ -3180,7 +3171,7 @@
         <v>77</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F189" s="4" t="n">
         <v>4</v>
@@ -3233,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F196" s="4" t="n">
         <v>1</v>
@@ -3241,19 +3232,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F197" s="4" t="n">
         <v>2</v>
@@ -3261,19 +3252,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="4" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F198" s="4" t="n">
         <v>3</v>
@@ -3281,10 +3272,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>26</v>
@@ -3293,7 +3284,7 @@
         <v>77</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F199" s="4" t="n">
         <v>4</v>
@@ -3301,12 +3292,12 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3334,32 +3325,52 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F206" s="4" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3387,19 +3398,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="F216" s="4" t="n">
         <v>1</v>
@@ -3407,32 +3418,72 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F217" s="4" t="n">
-        <v>2</v>
+      <c r="D218" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F218" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F219" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -3460,19 +3511,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="4" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="F226" s="4" t="n">
         <v>1</v>
@@ -3480,10 +3531,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="4" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>15</v>
@@ -3492,60 +3543,20 @@
         <v>30</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="F227" s="4" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F228" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F229" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3573,19 +3584,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="F236" s="4" t="n">
         <v>1</v>
@@ -3593,19 +3604,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="F237" s="4" t="n">
         <v>2</v>
@@ -3613,12 +3624,12 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -3646,19 +3657,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F246" s="4" t="n">
         <v>1</v>
@@ -3666,16 +3677,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="4" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>132</v>
@@ -3684,14 +3695,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F248" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F249" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -3719,19 +3770,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="4" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="F256" s="4" t="n">
         <v>1</v>
@@ -3739,19 +3790,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="4" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F257" s="4" t="n">
         <v>2</v>
@@ -3759,19 +3810,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="4" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="F258" s="4" t="n">
         <v>3</v>
@@ -3779,19 +3830,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F259" s="4" t="n">
         <v>4</v>
@@ -3799,12 +3850,12 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -3832,19 +3883,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="4" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F266" s="4" t="n">
         <v>1</v>
@@ -3852,19 +3903,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="4" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F267" s="4" t="n">
         <v>2</v>
@@ -3872,19 +3923,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="4" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F268" s="4" t="n">
         <v>3</v>
@@ -3892,19 +3943,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="4" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F269" s="4" t="n">
         <v>4</v>
@@ -3917,7 +3968,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -3945,19 +3996,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="4" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F276" s="4" t="n">
         <v>1</v>
@@ -3965,19 +4016,19 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="4" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F277" s="4" t="n">
         <v>2</v>
@@ -3985,42 +4036,22 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F278" s="4" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F279" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -4030,7 +4061,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -4058,19 +4089,19 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="4" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F286" s="4" t="n">
         <v>1</v>
@@ -4078,19 +4109,19 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="4" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="F287" s="4" t="n">
         <v>2</v>
@@ -4098,19 +4129,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="4" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F288" s="4" t="n">
         <v>3</v>
@@ -4118,12 +4149,12 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4151,19 +4182,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="F296" s="4" t="n">
         <v>1</v>
@@ -4171,19 +4202,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="F297" s="4" t="n">
         <v>2</v>
@@ -4191,32 +4222,52 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="F298" s="4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F299" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4244,19 +4295,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="4" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F306" s="4" t="n">
         <v>1</v>
@@ -4264,19 +4315,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="4" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F307" s="4" t="n">
         <v>2</v>
@@ -4284,10 +4335,10 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>15</v>
@@ -4296,7 +4347,7 @@
         <v>30</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="F308" s="4" t="n">
         <v>3</v>
@@ -4304,19 +4355,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F309" s="4" t="n">
         <v>4</v>
@@ -4324,12 +4375,12 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4357,19 +4408,19 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="4" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F316" s="4" t="n">
         <v>1</v>
@@ -4377,19 +4428,19 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="4" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="F317" s="4" t="n">
         <v>2</v>
@@ -4397,19 +4448,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="4" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F318" s="4" t="n">
         <v>3</v>
@@ -4417,19 +4468,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="4" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F319" s="4" t="n">
         <v>4</v>
@@ -4437,12 +4488,12 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -4470,19 +4521,19 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F326" s="4" t="n">
         <v>1</v>
@@ -4490,10 +4541,10 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="4" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>51</v>
@@ -4502,7 +4553,7 @@
         <v>52</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F327" s="4" t="n">
         <v>2</v>
@@ -4510,19 +4561,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="4" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="F328" s="4" t="n">
         <v>3</v>
@@ -4530,19 +4581,19 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="4" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="F329" s="4" t="n">
         <v>4</v>
@@ -4555,7 +4606,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -4583,19 +4634,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="4" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="F336" s="4" t="n">
         <v>1</v>
@@ -4603,19 +4654,19 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="4" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="F337" s="4" t="n">
         <v>2</v>
@@ -4623,19 +4674,19 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="4" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="F338" s="4" t="n">
         <v>3</v>
@@ -4643,10 +4694,10 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="4" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>15</v>
@@ -4655,7 +4706,7 @@
         <v>30</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F339" s="4" t="n">
         <v>4</v>
@@ -4663,12 +4714,12 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -4696,19 +4747,19 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="4" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="F346" s="4" t="n">
         <v>1</v>
@@ -4716,19 +4767,19 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="4" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F347" s="4" t="n">
         <v>2</v>
@@ -4736,19 +4787,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="4" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F348" s="4" t="n">
         <v>3</v>
@@ -4756,19 +4807,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="4" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F349" s="4" t="n">
         <v>4</v>
@@ -4776,12 +4827,12 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -4809,19 +4860,19 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="4" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F356" s="4" t="n">
         <v>1</v>
@@ -4829,19 +4880,19 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="4" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="F357" s="4" t="n">
         <v>2</v>
@@ -4849,19 +4900,19 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="4" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="F358" s="4" t="n">
         <v>3</v>
@@ -4869,19 +4920,19 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="F359" s="4" t="n">
         <v>4</v>
@@ -4889,12 +4940,12 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -4922,19 +4973,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="F366" s="4" t="n">
         <v>1</v>
@@ -4942,19 +4993,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="F367" s="4" t="n">
         <v>2</v>
@@ -4962,19 +5013,19 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="4" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F368" s="4" t="n">
         <v>3</v>
@@ -4982,19 +5033,19 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F369" s="4" t="n">
         <v>4</v>
@@ -5007,7 +5058,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -5035,19 +5086,19 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="F376" s="4" t="n">
         <v>1</v>
@@ -5055,19 +5106,19 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="4" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="F377" s="4" t="n">
         <v>2</v>
@@ -5075,19 +5126,19 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F378" s="4" t="n">
         <v>3</v>
@@ -5095,19 +5146,19 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="4" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F379" s="4" t="n">
         <v>4</v>
@@ -5120,7 +5171,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -5148,19 +5199,19 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="F386" s="4" t="n">
         <v>1</v>
@@ -5168,16 +5219,16 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="4" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>222</v>
@@ -5188,42 +5239,22 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="F388" s="4" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D389" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E389" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F389" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -5233,7 +5264,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -5261,10 +5292,10 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>15</v>
@@ -5273,7 +5304,7 @@
         <v>30</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F396" s="4" t="n">
         <v>1</v>
@@ -5281,52 +5312,32 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="4" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F397" s="4" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E398" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F398" s="4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -5354,19 +5365,19 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F406" s="4" t="n">
         <v>1</v>
@@ -5374,22 +5385,62 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F407" s="4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F408" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F409" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -5399,7 +5450,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -5427,19 +5478,19 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="4" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F416" s="4" t="n">
         <v>1</v>
@@ -5447,19 +5498,19 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="F417" s="4" t="n">
         <v>2</v>
@@ -5470,16 +5521,16 @@
         <v>177</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F418" s="4" t="n">
         <v>3</v>
@@ -5487,19 +5538,19 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="4" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F419" s="4" t="n">
         <v>4</v>
@@ -5507,12 +5558,12 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -5540,19 +5591,19 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="4" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="F426" s="4" t="n">
         <v>1</v>
@@ -5560,10 +5611,10 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="4" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>15</v>
@@ -5572,7 +5623,7 @@
         <v>30</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F427" s="4" t="n">
         <v>2</v>
@@ -5580,19 +5631,19 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="4" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F428" s="4" t="n">
         <v>3</v>
@@ -5600,19 +5651,19 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="F429" s="4" t="n">
         <v>4</v>
@@ -5620,12 +5671,12 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -5653,139 +5704,26 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="4" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F436" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
-      <c r="A437" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D437" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E437" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F437" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
-      <c r="A438" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D438" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E438" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F438" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C439" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E439" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F439" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="2" t="n"/>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E445" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F445" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C446" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D446" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E446" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F446" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="132">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
@@ -5918,9 +5856,6 @@
     <mergeCell ref="A431:F431"/>
     <mergeCell ref="A432:F432"/>
     <mergeCell ref="A434:F434"/>
-    <mergeCell ref="A441:F441"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A444:F444"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -5953,7 +5888,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5981,7 +5916,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
@@ -5993,7 +5928,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
@@ -6053,7 +5988,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>4</v>
@@ -6061,12 +5996,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6094,7 +6029,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -6114,7 +6049,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
@@ -6134,16 +6069,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>95</v>
@@ -6154,16 +6089,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>95</v>
@@ -6179,7 +6114,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6207,7 +6142,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -6259,7 +6194,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>3</v>
@@ -6267,7 +6202,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -6287,12 +6222,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6320,7 +6255,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>29</v>
@@ -6352,7 +6287,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>2</v>
@@ -6372,7 +6307,7 @@
         <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>3</v>
@@ -6400,12 +6335,12 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6433,16 +6368,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>95</v>
@@ -6453,19 +6388,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>2</v>
@@ -6473,19 +6408,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>3</v>
@@ -6493,16 +6428,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>95</v>
@@ -6518,7 +6453,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6546,7 +6481,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
@@ -6558,7 +6493,7 @@
         <v>30</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6566,7 +6501,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>29</v>
@@ -6578,7 +6513,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>2</v>
@@ -6586,7 +6521,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
@@ -6606,7 +6541,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
@@ -6618,7 +6553,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>4</v>
@@ -6626,12 +6561,12 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6659,7 +6594,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>29</v>
@@ -6671,7 +6606,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>1</v>
@@ -6679,7 +6614,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>14</v>
@@ -6711,7 +6646,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F68" s="4" t="n">
         <v>3</v>
@@ -6719,19 +6654,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>4</v>
@@ -6739,12 +6674,12 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6772,7 +6707,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>25</v>
@@ -6792,7 +6727,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>29</v>
@@ -6804,7 +6739,7 @@
         <v>30</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F77" s="4" t="n">
         <v>2</v>
@@ -6845,19 +6780,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F86" s="4" t="n">
         <v>1</v>
@@ -6865,7 +6800,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>20</v>
@@ -6877,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F87" s="4" t="n">
         <v>2</v>
@@ -6885,16 +6820,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>57</v>
@@ -6905,16 +6840,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>57</v>
@@ -6970,7 +6905,7 @@
         <v>52</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F96" s="4" t="n">
         <v>1</v>
@@ -6978,7 +6913,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7011,19 +6946,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="F106" s="4" t="n">
         <v>1</v>
@@ -7031,7 +6966,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>14</v>
@@ -7063,7 +6998,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>3</v>
@@ -7091,7 +7026,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7164,7 +7099,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>14</v>
@@ -7257,7 +7192,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>29</v>
@@ -7269,7 +7204,7 @@
         <v>30</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F127" s="4" t="n">
         <v>2</v>
@@ -7277,7 +7212,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>9</v>
@@ -7300,7 +7235,7 @@
         <v>97</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>98</v>
@@ -7309,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F129" s="4" t="n">
         <v>4</v>
@@ -7350,16 +7285,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="4" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>101</v>
@@ -7370,19 +7305,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F137" s="4" t="n">
         <v>2</v>
@@ -7402,7 +7337,7 @@
         <v>94</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F138" s="4" t="n">
         <v>3</v>
@@ -7410,16 +7345,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>101</v>
@@ -7463,19 +7398,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F146" s="4" t="n">
         <v>1</v>
@@ -7483,19 +7418,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F147" s="4" t="n">
         <v>2</v>
@@ -7503,19 +7438,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F148" s="4" t="n">
         <v>3</v>
@@ -7523,7 +7458,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7556,16 +7491,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>125</v>
@@ -7608,7 +7543,7 @@
         <v>30</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F158" s="4" t="n">
         <v>3</v>
@@ -7636,7 +7571,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7669,7 +7604,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>14</v>
@@ -7709,7 +7644,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7762,16 +7697,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>119</v>
@@ -7782,7 +7717,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>81</v>
@@ -7791,7 +7726,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>122</v>
@@ -7822,7 +7757,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7875,7 +7810,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>33</v>
@@ -7895,7 +7830,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>14</v>
@@ -7915,16 +7850,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>113</v>
@@ -8000,7 +7935,7 @@
         <v>30</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F197" s="4" t="n">
         <v>2</v>
@@ -8008,16 +7943,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>132</v>
@@ -8028,16 +7963,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>132</v>
@@ -8048,7 +7983,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8081,7 +8016,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>90</v>
@@ -8093,7 +8028,7 @@
         <v>52</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F206" s="4" t="n">
         <v>1</v>
@@ -8101,19 +8036,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F207" s="4" t="n">
         <v>2</v>
@@ -8121,7 +8056,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>29</v>
@@ -8133,7 +8068,7 @@
         <v>30</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F208" s="4" t="n">
         <v>3</v>
@@ -8141,7 +8076,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>20</v>
@@ -8153,7 +8088,7 @@
         <v>77</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F209" s="4" t="n">
         <v>4</v>
@@ -8161,7 +8096,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8194,19 +8129,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F216" s="4" t="n">
         <v>1</v>
@@ -8214,19 +8149,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F217" s="4" t="n">
         <v>2</v>
@@ -8234,7 +8169,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>14</v>
@@ -8246,7 +8181,7 @@
         <v>30</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F218" s="4" t="n">
         <v>3</v>
@@ -8254,19 +8189,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F219" s="4" t="n">
         <v>4</v>
@@ -8274,7 +8209,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8307,19 +8242,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="4" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F226" s="4" t="n">
         <v>1</v>
@@ -8327,7 +8262,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>14</v>
@@ -8339,7 +8274,7 @@
         <v>52</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F227" s="4" t="n">
         <v>2</v>
@@ -8347,19 +8282,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F228" s="4" t="n">
         <v>3</v>
@@ -8367,12 +8302,12 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8400,7 +8335,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>14</v>
@@ -8420,12 +8355,12 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8465,7 +8400,7 @@
         <v>22</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F246" s="4" t="n">
         <v>1</v>
@@ -8533,12 +8468,12 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -8566,7 +8501,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>33</v>
@@ -8586,10 +8521,10 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>76</v>
@@ -8598,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F257" s="4" t="n">
         <v>2</v>
@@ -8618,7 +8553,7 @@
         <v>30</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F258" s="4" t="n">
         <v>3</v>
@@ -8626,12 +8561,12 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -8671,7 +8606,7 @@
         <v>11</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F266" s="4" t="n">
         <v>1</v>
@@ -8679,7 +8614,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>25</v>
@@ -8691,7 +8626,7 @@
         <v>30</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F267" s="4" t="n">
         <v>2</v>
@@ -8704,7 +8639,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8744,7 +8679,7 @@
         <v>16</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F276" s="4" t="n">
         <v>1</v>
@@ -8764,7 +8699,7 @@
         <v>77</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F277" s="4" t="n">
         <v>2</v>
@@ -8772,10 +8707,10 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>15</v>
@@ -8812,12 +8747,12 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8845,7 +8780,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>33</v>
@@ -8865,7 +8800,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>25</v>
@@ -8897,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F288" s="4" t="n">
         <v>3</v>
@@ -8917,7 +8852,7 @@
         <v>11</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F289" s="4" t="n">
         <v>4</v>
@@ -8925,12 +8860,12 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8958,7 +8893,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>25</v>
@@ -8970,7 +8905,7 @@
         <v>30</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F296" s="4" t="n">
         <v>1</v>
@@ -8978,7 +8913,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>29</v>
@@ -8990,7 +8925,7 @@
         <v>30</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F297" s="4" t="n">
         <v>2</v>
@@ -8998,19 +8933,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F298" s="4" t="n">
         <v>3</v>
@@ -9018,19 +8953,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F299" s="4" t="n">
         <v>4</v>
@@ -9038,12 +8973,12 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -9071,19 +9006,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F306" s="4" t="n">
         <v>1</v>
@@ -9091,19 +9026,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F307" s="4" t="n">
         <v>2</v>
@@ -9111,19 +9046,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F308" s="4" t="n">
         <v>3</v>
@@ -9131,12 +9066,12 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -9176,7 +9111,7 @@
         <v>30</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F316" s="4" t="n">
         <v>1</v>
@@ -9204,19 +9139,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="4" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F318" s="4" t="n">
         <v>3</v>
@@ -9224,19 +9159,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="4" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F319" s="4" t="n">
         <v>4</v>
@@ -9244,12 +9179,12 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -9289,7 +9224,7 @@
         <v>77</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F326" s="4" t="n">
         <v>1</v>
@@ -9297,7 +9232,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>33</v>
@@ -9362,7 +9297,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -9402,7 +9337,7 @@
         <v>85</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F336" s="4" t="n">
         <v>1</v>
@@ -9430,7 +9365,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>90</v>
@@ -9462,7 +9397,7 @@
         <v>77</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F339" s="4" t="n">
         <v>4</v>
@@ -9470,12 +9405,12 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -9503,7 +9438,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>20</v>
@@ -9515,7 +9450,7 @@
         <v>77</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F346" s="4" t="n">
         <v>1</v>
@@ -9523,7 +9458,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>29</v>
@@ -9543,7 +9478,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>9</v>
@@ -9555,7 +9490,7 @@
         <v>77</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F348" s="4" t="n">
         <v>3</v>
@@ -9563,7 +9498,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>25</v>
@@ -9575,7 +9510,7 @@
         <v>52</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F349" s="4" t="n">
         <v>4</v>
@@ -9583,12 +9518,12 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9648,7 +9583,7 @@
         <v>30</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F357" s="4" t="n">
         <v>2</v>
@@ -9668,7 +9603,7 @@
         <v>11</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F358" s="4" t="n">
         <v>3</v>
@@ -9688,7 +9623,7 @@
         <v>11</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F359" s="4" t="n">
         <v>4</v>
@@ -9696,12 +9631,12 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9741,7 +9676,7 @@
         <v>16</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F366" s="4" t="n">
         <v>1</v>
@@ -9749,7 +9684,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>14</v>
@@ -9769,16 +9704,16 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E368" s="4" t="s">
         <v>48</v>
@@ -9814,7 +9749,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9845,7 +9780,7 @@
         <v>97</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>98</v>
@@ -9865,7 +9800,7 @@
         <v>161</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>98</v>
@@ -9874,7 +9809,7 @@
         <v>77</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F377" s="4" t="n">
         <v>2</v>
@@ -9882,19 +9817,19 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F378" s="4" t="n">
         <v>3</v>
@@ -9902,7 +9837,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>90</v>
@@ -9927,7 +9862,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -9955,7 +9890,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>9</v>
@@ -9967,7 +9902,7 @@
         <v>11</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F386" s="4" t="n">
         <v>1</v>
@@ -9975,19 +9910,19 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F387" s="4" t="n">
         <v>2</v>
@@ -10007,7 +9942,7 @@
         <v>52</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F388" s="4" t="n">
         <v>3</v>
@@ -10015,19 +9950,19 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F389" s="4" t="n">
         <v>4</v>
@@ -10035,12 +9970,12 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -10068,19 +10003,19 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F396" s="4" t="n">
         <v>1</v>
@@ -10088,7 +10023,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>25</v>
@@ -10100,7 +10035,7 @@
         <v>77</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F397" s="4" t="n">
         <v>2</v>
@@ -10108,7 +10043,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>14</v>
@@ -10120,7 +10055,7 @@
         <v>52</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F398" s="4" t="n">
         <v>3</v>
@@ -10128,12 +10063,12 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -10161,7 +10096,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>33</v>
@@ -10173,7 +10108,7 @@
         <v>30</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F406" s="4" t="n">
         <v>1</v>
@@ -10186,7 +10121,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -10234,10 +10169,10 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="4" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>15</v>
@@ -10254,7 +10189,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>29</v>
@@ -10266,7 +10201,7 @@
         <v>30</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F418" s="4" t="n">
         <v>3</v>
@@ -10294,12 +10229,12 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -10327,7 +10262,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>33</v>
@@ -10347,16 +10282,16 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>112</v>
@@ -10367,7 +10302,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>33</v>
@@ -10399,7 +10334,7 @@
         <v>85</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F429" s="4" t="n">
         <v>4</v>
@@ -10407,12 +10342,12 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -10440,16 +10375,16 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="4" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>112</v>
@@ -10472,7 +10407,7 @@
         <v>56</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F437" s="4" t="n">
         <v>2</v>
@@ -10500,7 +10435,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>20</v>
@@ -10512,7 +10447,7 @@
         <v>11</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F439" s="4" t="n">
         <v>4</v>
@@ -10520,12 +10455,12 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10553,7 +10488,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>14</v>
@@ -10565,7 +10500,7 @@
         <v>30</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F446" s="4" t="n">
         <v>1</v>
